--- a/data/extras/data_graphs.xlsx
+++ b/data/extras/data_graphs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgankortlander/Documents/Code/VSCode/EdgeCasesCodeRED/data/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{484A5F57-A868-9D46-A6AC-8A4B1A32DDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9157D-B7A6-BD4B-8B72-7644A33948DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -1436,6 +1436,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1974752464"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4291,10 +4292,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -4306,7 +4307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4749,11 +4750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4828,7 +4829,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="C5">
         <v>251</v>
@@ -4848,7 +4849,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>15.33</v>
+        <v>77.38</v>
       </c>
       <c r="C6">
         <v>91.614999999999995</v>
@@ -4868,7 +4869,7 @@
         <v>31</v>
       </c>
       <c r="B7">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>49</v>
@@ -4888,7 +4889,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>77.38</v>
+        <v>15.33</v>
       </c>
       <c r="C8">
         <v>17.885000000000002</v>

--- a/data/extras/data_graphs.xlsx
+++ b/data/extras/data_graphs.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgankortlander/Documents/Code/VSCode/EdgeCasesCodeRED/data/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9157D-B7A6-BD4B-8B72-7644A33948DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FA34D8-AA04-C249-B83D-109227C8F735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="12260" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="2" r:id="rId1"/>
     <sheet name="USA_GHG_performance_data" sheetId="1" r:id="rId2"/>
     <sheet name="lower48Output" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -330,7 +343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +523,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -671,10 +690,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4754,7 +4774,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4784,23 +4804,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>109</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>125</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>103</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>116</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>117</v>
       </c>
     </row>
@@ -4824,23 +4844,23 @@
         <v>42.704999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>212</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>251</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>228</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>251</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>271</v>
       </c>
     </row>
@@ -4864,23 +4884,23 @@
         <v>98.915000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>42</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>49</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>46</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>53</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>58</v>
       </c>
     </row>
@@ -4904,23 +4924,23 @@
         <v>21.17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>186</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>216</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>186</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>211</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>220</v>
       </c>
     </row>
@@ -4949,23 +4969,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>63</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>71</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>53</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>59</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>59</v>
       </c>
     </row>
@@ -4989,23 +5009,23 @@
         <v>21.535</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>72</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>92</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>92</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>117</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>127</v>
       </c>
     </row>
@@ -5029,23 +5049,23 @@
         <v>46.354999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>15</v>
       </c>
     </row>
@@ -5069,23 +5089,23 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" s="3" customFormat="1">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>84</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>97</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>78</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>94</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>95</v>
       </c>
     </row>
@@ -5154,23 +5174,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>35</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>45</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>45</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>251</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>349</v>
       </c>
     </row>
@@ -5234,23 +5254,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" s="3" customFormat="1">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>126</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>153</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>155</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>813</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>948</v>
       </c>
     </row>
@@ -5314,23 +5334,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>15</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>14</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>36</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>145</v>
       </c>
     </row>
@@ -5362,7 +5382,7 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>21</v>
@@ -5382,7 +5402,7 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>64</v>
@@ -5394,23 +5414,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" s="3" customFormat="1">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>66</v>
       </c>
-      <c r="C35">
-        <v>153</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="3">
+        <f>C34+C33</f>
+        <v>86</v>
+      </c>
+      <c r="D35" s="3">
         <v>85</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>422</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>653</v>
       </c>
     </row>
@@ -5422,7 +5443,8 @@
         <v>24.09</v>
       </c>
       <c r="C36">
-        <v>55.844999999999999</v>
+        <f>C35/1000*365</f>
+        <v>31.389999999999997</v>
       </c>
       <c r="D36">
         <v>31.024999999999999</v>
